--- a/src/assets/excel/FileMau.xlsx
+++ b/src/assets/excel/FileMau.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>QUẢN LÝ ĐĂNG KÝ GẶP KHÁCH HẰNG NGÀY</t>
   </si>
@@ -68,49 +68,28 @@
 방문 부서</t>
   </si>
   <si>
-    <t>WON DONMIN</t>
-  </si>
-  <si>
-    <t>99A39114</t>
-  </si>
-  <si>
-    <t>DAEKYUNG</t>
-  </si>
-  <si>
-    <t>SPL</t>
-  </si>
-  <si>
     <t>HANG JAEGYU</t>
   </si>
   <si>
     <t>R&amp;D</t>
   </si>
   <si>
-    <t>05/04/2024</t>
-  </si>
-  <si>
     <t>16:30</t>
   </si>
   <si>
-    <t>17:30</t>
-  </si>
-  <si>
-    <t>99A39115</t>
-  </si>
-  <si>
-    <t>06/04/2025</t>
-  </si>
-  <si>
-    <t>WON DONMIN 2</t>
-  </si>
-  <si>
-    <t>16:34</t>
-  </si>
-  <si>
-    <t>17:34</t>
-  </si>
-  <si>
-    <t>HANG JAEGYU 2</t>
+    <t>Tuấn Anh</t>
+  </si>
+  <si>
+    <t>GU VINA</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>07-04-2024 ~ 10/04/2024</t>
   </si>
 </sst>
 </file>
@@ -179,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -191,9 +170,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -202,6 +178,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,57 +313,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="5.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="9"/>
+    <col min="3" max="3" width="22.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.140625" customWidth="1"/>
     <col min="6" max="6" width="21.140625" customWidth="1"/>
     <col min="7" max="7" width="24.5703125" customWidth="1"/>
-    <col min="8" max="9" width="13.5703125" style="9" customWidth="1"/>
+    <col min="8" max="9" width="13.5703125" style="8" customWidth="1"/>
     <col min="10" max="10" width="18.7109375" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
-      <c r="C4" s="7"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
@@ -389,7 +371,7 @@
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -404,10 +386,10 @@
       <c r="G5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="J5" s="3" t="s">
@@ -421,507 +403,485 @@
       <c r="B6" s="4">
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="4">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
-      <c r="C8" s="6"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
-      <c r="C9" s="6"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="4"/>
-      <c r="C10" s="6"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
-      <c r="C11" s="6"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="4"/>
-      <c r="C12" s="6"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
-      <c r="C13" s="6"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
-      <c r="C14" s="6"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
-      <c r="C15" s="6"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
-      <c r="C16" s="6"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
-      <c r="C17" s="6"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="4"/>
-      <c r="C18" s="6"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
-      <c r="C19" s="6"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="4"/>
-      <c r="C20" s="6"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="4"/>
-      <c r="C21" s="6"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="4"/>
-      <c r="C22" s="6"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="4"/>
-      <c r="C23" s="6"/>
+      <c r="C23" s="5"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="4"/>
-      <c r="C24" s="6"/>
+      <c r="C24" s="5"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="4"/>
-      <c r="C25" s="6"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="4"/>
-      <c r="C26" s="6"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="4"/>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
-      <c r="C28" s="7"/>
+      <c r="C28" s="6"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
-      <c r="C29" s="7"/>
+      <c r="C29" s="6"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="1"/>
-      <c r="C30" s="7"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
-      <c r="C31" s="7"/>
+      <c r="C31" s="6"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
-      <c r="C32" s="7"/>
+      <c r="C32" s="6"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="1"/>
-      <c r="C33" s="7"/>
+      <c r="C33" s="6"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="1"/>
-      <c r="C34" s="7"/>
+      <c r="C34" s="6"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
-      <c r="C35" s="7"/>
+      <c r="C35" s="6"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" s="1"/>
-      <c r="C36" s="7"/>
+      <c r="C36" s="6"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="1"/>
-      <c r="C37" s="7"/>
+      <c r="C37" s="6"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="1"/>
-      <c r="C38" s="7"/>
+      <c r="C38" s="6"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="1"/>
-      <c r="C39" s="7"/>
+      <c r="C39" s="6"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" s="1"/>
-      <c r="C40" s="7"/>
+      <c r="C40" s="6"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" s="1"/>
-      <c r="C41" s="7"/>
+      <c r="C41" s="6"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42" s="1"/>
-      <c r="C42" s="7"/>
+      <c r="C42" s="6"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" s="1"/>
-      <c r="C43" s="7"/>
+      <c r="C43" s="6"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="1"/>
-      <c r="C44" s="7"/>
+      <c r="C44" s="6"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
@@ -930,7 +890,7 @@
     <mergeCell ref="B2:K3"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/src/assets/excel/FileMau.xlsx
+++ b/src/assets/excel/FileMau.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\TuanIT\program\web\src\assets\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT\Tuan\Program\GuestManagement\SourceCode\web\src\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -68,28 +69,28 @@
 방문 부서</t>
   </si>
   <si>
-    <t>HANG JAEGYU</t>
-  </si>
-  <si>
-    <t>R&amp;D</t>
-  </si>
-  <si>
-    <t>16:30</t>
-  </si>
-  <si>
-    <t>Tuấn Anh</t>
-  </si>
-  <si>
-    <t>GU VINA</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>18:00</t>
-  </si>
-  <si>
-    <t>07-04-2024 ~ 10/04/2024</t>
+    <t>09/04/2024</t>
+  </si>
+  <si>
+    <t>Phạm Hải Ngọc</t>
+  </si>
+  <si>
+    <t>SCG</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>mr.Hung</t>
+  </si>
+  <si>
+    <t>OQC</t>
+  </si>
+  <si>
+    <t>Sorting</t>
   </si>
 </sst>
 </file>
@@ -313,8 +314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -404,29 +405,29 @@
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="5" t="s">
+      <c r="K6" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
